--- a/data/trans_camb/P16A11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.592570183600005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.108265219179957</v>
+        <v>9.108265219179955</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.8441901931830933</v>
@@ -655,7 +655,7 @@
         <v>-0.5238683630162666</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.172248884309802</v>
+        <v>2.172248884309798</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.78999451879188</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6218023834503017</v>
+        <v>0.5864878151018352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.006804367836444</v>
+        <v>-2.628586666364389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.730392221373153</v>
+        <v>4.523432755425723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.742228565910907</v>
+        <v>-5.520798666816924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.554798938212747</v>
+        <v>-5.477578969346123</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.359820021373492</v>
+        <v>-2.208004093798038</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7972829061805433</v>
+        <v>-1.145831823815633</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.723527880015411</v>
+        <v>-2.581045783022874</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.595595169102212</v>
+        <v>2.831968254223738</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.37509650725347</v>
+        <v>10.7121286784081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.034602637809723</v>
+        <v>6.090332445807271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.13967793316835</v>
+        <v>13.41972108216846</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.094782069023404</v>
+        <v>4.018070964114322</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.190448543296856</v>
+        <v>4.525125273832579</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.914325343494949</v>
+        <v>6.079114512975993</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.392545729266462</v>
+        <v>6.152403246185701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.929991427259019</v>
+        <v>4.148601556301382</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.68036406204437</v>
+        <v>8.716817758990441</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1470292052418226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8408929227097205</v>
+        <v>0.8408929227097203</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.08481553057985279</v>
@@ -760,7 +760,7 @@
         <v>-0.05263289424825959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2182451811949323</v>
+        <v>0.2182451811949319</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2660561333755959</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04317832243980491</v>
+        <v>0.04537267399267476</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2320511065589452</v>
+        <v>-0.2039016909955858</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3552502327112277</v>
+        <v>0.3393849381191205</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4868772780431317</v>
+        <v>-0.4555752069834517</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4642709844990173</v>
+        <v>-0.4413901775884501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.17905322825766</v>
+        <v>-0.1745617102814484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06954379382904395</v>
+        <v>-0.08629286661627528</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2380595455113861</v>
+        <v>-0.2091164799602363</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2031960454194077</v>
+        <v>0.2161476372829971</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.143221235077418</v>
+        <v>1.273903854067253</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6907932322048119</v>
+        <v>0.6881495721037418</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.528428678608285</v>
+        <v>1.569831727029018</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4910445212415682</v>
+        <v>0.5133562034095098</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5626523056211205</v>
+        <v>0.6125687560622994</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8318021364377977</v>
+        <v>0.8656059545920217</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.724270360793637</v>
+        <v>0.7051194068861117</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.446750242461927</v>
+        <v>0.4773996639365151</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9848601361360573</v>
+        <v>0.9552527892640275</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.753846252070913</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.464277205476122</v>
+        <v>7.464277205476128</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.272320276061346</v>
@@ -878,7 +878,7 @@
         <v>1.544172959167328</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.927269317864609</v>
+        <v>7.927269317864612</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.559622495049476</v>
+        <v>-4.133113228375397</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.172986118997566</v>
+        <v>-3.774796551268456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.992643791997016</v>
+        <v>2.552033213556646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2871883329545031</v>
+        <v>-0.2611579678516192</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.690282193298068</v>
+        <v>-2.167127951637577</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.683186768738464</v>
+        <v>3.976216733289742</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.074062214115522</v>
+        <v>-0.8877102894690798</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.781714385176331</v>
+        <v>-1.868374699850684</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.719157654293827</v>
+        <v>4.958580161565913</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.389910434922842</v>
+        <v>5.300202637647693</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.255520192951755</v>
+        <v>6.108096762071113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.60237334698945</v>
+        <v>12.92350171988406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.300005722091313</v>
+        <v>8.20996876770632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.900739109572594</v>
+        <v>5.833882685304689</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.09160192682933</v>
+        <v>11.1737514120429</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.881053430744111</v>
+        <v>5.456683854656235</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.82846864069171</v>
+        <v>4.744174415368305</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.94889806380409</v>
+        <v>11.02797866369283</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.306862510407987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.3059906699056</v>
+        <v>1.305990669905601</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.244205415286939</v>
@@ -983,7 +983,7 @@
         <v>0.1659516938439441</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8519406864669783</v>
+        <v>0.8519406864669786</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3018170062743975</v>
+        <v>-0.2704787790160623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.266203163099247</v>
+        <v>-0.2377258739458533</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1771320461699283</v>
+        <v>0.1529469608978993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04922080243752948</v>
+        <v>-0.0514794780014082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2525643190331055</v>
+        <v>-0.3121606209797929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4249792749841345</v>
+        <v>0.4852139295996687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1034112097587346</v>
+        <v>-0.08155478283950691</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1710536364180689</v>
+        <v>-0.1684117747723001</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4009647601314421</v>
+        <v>0.4329706629314702</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5486003029837737</v>
+        <v>0.531137526600439</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5953296603216609</v>
+        <v>0.5877406179402442</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.212316101128873</v>
+        <v>1.262364693992927</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.152737329860187</v>
+        <v>2.052411498638478</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.447139854009336</v>
+        <v>1.467176544086064</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.819756873463945</v>
+        <v>2.937490052757688</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7463778008401526</v>
+        <v>0.6945747682977337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.63265508202661</v>
+        <v>0.6150135156591565</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.415062585473968</v>
+        <v>1.454440575141395</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.329252519365161</v>
+        <v>5.181260995773787</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1485460108416265</v>
+        <v>-0.2237387836245193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.710347017594998</v>
+        <v>4.167221693478041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8169787494586803</v>
+        <v>0.5585268845896675</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.514021594865095</v>
+        <v>-1.757885738111329</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.639739473272961</v>
+        <v>1.554019792038059</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.52699555821147</v>
+        <v>5.604645751646867</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9599769161090643</v>
+        <v>0.8402488521909932</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.800144943362795</v>
+        <v>5.40029216620762</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.68907149721535</v>
+        <v>14.22236563816971</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.424643260544938</v>
+        <v>8.129953640474309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.59571997383555</v>
+        <v>13.61156966092397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.57560906415138</v>
+        <v>15.24091801254833</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.99563756413444</v>
+        <v>16.16327389807238</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.98200100886862</v>
+        <v>16.59413439937977</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.1972061208298</v>
+        <v>13.21567458326753</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.772801946429478</v>
+        <v>9.038518875380809</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.63712894426521</v>
+        <v>13.09707231791715</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3566928920330741</v>
+        <v>0.3732083359391752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01457012730438708</v>
+        <v>-0.02048978312295404</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3441029225059912</v>
+        <v>0.2987706651255685</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02999474397758811</v>
+        <v>0.02869782907464968</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.151710069303879</v>
+        <v>-0.1337729795867285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07907448262630877</v>
+        <v>0.08041462380432036</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3682958333726452</v>
+        <v>0.3957290026562361</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06839129900064297</v>
+        <v>0.05810994189488799</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3287113907511307</v>
+        <v>0.3658513101055569</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.405722139221436</v>
+        <v>1.464012452377314</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8732920772986829</v>
+        <v>0.8021659920907888</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.346822181532149</v>
+        <v>1.351303178042667</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.470132308155149</v>
+        <v>1.428681567318113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.35650671388785</v>
+        <v>1.523077625685946</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.696360181322369</v>
+        <v>1.718160252596257</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.233948661859585</v>
+        <v>1.271607098970596</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8357718941404422</v>
+        <v>0.8460229546572862</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.181314024853372</v>
+        <v>1.252013248165917</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.495696071702626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.671587550044462</v>
+        <v>4.671587550044459</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.099917145449481</v>
@@ -1306,7 +1306,7 @@
         <v>-0.5667182465091652</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.178417141369494</v>
+        <v>3.178417141369502</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.076096500961155</v>
+        <v>-1.050474854199332</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.460296573360231</v>
+        <v>-1.421331625685115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.729399035291036</v>
+        <v>1.662681110206094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.50824454417475</v>
+        <v>-6.48488203723741</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.612548501587932</v>
+        <v>-6.480792846287072</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.463747050841819</v>
+        <v>-1.812250890401371</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.363714830959644</v>
+        <v>-2.451531447589798</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.887279473402474</v>
+        <v>-2.950381558823338</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.053205490881924</v>
+        <v>0.7756551445128301</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.128132937936249</v>
+        <v>5.122702872488767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.048320793427831</v>
+        <v>4.555685992438413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.895098843311635</v>
+        <v>7.693494738359674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3626499870491992</v>
+        <v>0.06570421058432059</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1243657239133676</v>
+        <v>0.1482150835356444</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.531176103138177</v>
+        <v>4.642528355468437</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.089541070450079</v>
+        <v>2.216804796104652</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.472112312007306</v>
+        <v>1.805657199176064</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.392837665947985</v>
+        <v>5.322561493276347</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.09123446096544149</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2849574723399506</v>
+        <v>0.2849574723399504</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.223673135129905</v>
@@ -1411,7 +1411,7 @@
         <v>-0.03664115340106364</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2055004771186706</v>
+        <v>0.2055004771186711</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06186440069909051</v>
+        <v>-0.05935783277336381</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08240508426793945</v>
+        <v>-0.07789202342298063</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09620320485338202</v>
+        <v>0.08845551365495764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4048797071300859</v>
+        <v>-0.4117075059934418</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4186965751391227</v>
+        <v>-0.4177249917125041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09070730936357453</v>
+        <v>-0.1113045602349506</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1431392222250742</v>
+        <v>-0.1503721134103941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.172354306462787</v>
+        <v>-0.1766542583470616</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0565281182388316</v>
+        <v>0.0433354358914164</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3533897692537212</v>
+        <v>0.3491379223328462</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3362968556290039</v>
+        <v>0.3055415974399303</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5460287953563449</v>
+        <v>0.5134078021687493</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03523154860325879</v>
+        <v>0.007193521008104204</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01648697058252431</v>
+        <v>0.01460343264054753</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3899712876587262</v>
+        <v>0.4024702725937208</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1458860904368955</v>
+        <v>0.1582324606957064</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.102450276746356</v>
+        <v>0.1281023899506861</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3744918387298137</v>
+        <v>0.3647210125638489</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.922843010800011</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.166973568527943</v>
+        <v>6.166973568527941</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.48969198323676</v>
@@ -1511,7 +1511,7 @@
         <v>5.034468397400246</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>12.17571656997033</v>
+        <v>12.17571656997032</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.662745558269783</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.103627674573521</v>
+        <v>1.122387317287443</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3230225484922317</v>
+        <v>0.5193595593893329</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.507454150531593</v>
+        <v>1.573425689412038</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.680843008781815</v>
+        <v>6.276808018149602</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.655820157459678</v>
+        <v>0.688802544566214</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.456418736400108</v>
+        <v>7.895987736950512</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.247655663374221</v>
+        <v>4.760723968564487</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.602231504469482</v>
+        <v>1.50602674401852</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.791028094038245</v>
+        <v>6.62583905004646</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.9862282624085</v>
+        <v>10.70446581173402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.321238217107258</v>
+        <v>9.777382446491032</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.42287466235002</v>
+        <v>10.5016733430344</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.43922281713115</v>
+        <v>15.05864285806418</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.53614205444666</v>
+        <v>9.445901237750903</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.961268601517</v>
+        <v>15.45815049686529</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.67568967737772</v>
+        <v>11.72893102323563</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.713785950117104</v>
+        <v>8.084052013693221</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.4759058044922</v>
+        <v>12.64323762157884</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4064766348416405</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5092038600038991</v>
+        <v>0.5092038600038988</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7204455382592193</v>
@@ -1616,7 +1616,7 @@
         <v>0.3457737653508166</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8362438756030323</v>
+        <v>0.8362438756030318</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6356661726524495</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07117838731104384</v>
+        <v>0.07662975471302966</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02265806313260594</v>
+        <v>0.02629663556901057</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08889843843980211</v>
+        <v>0.1074434391731128</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3195333198089311</v>
+        <v>0.3628887123428794</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03696202935585456</v>
+        <v>0.03918735508371327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.470806071103574</v>
+        <v>0.4369771490272946</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.352502864097726</v>
+        <v>0.312962552271611</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1034524739498823</v>
+        <v>0.09760863113358012</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4309296847073282</v>
+        <v>0.4070334884549848</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.195277388127144</v>
+        <v>1.129937015446947</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.006839565465393</v>
+        <v>1.040027657751135</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.10370164441383</v>
+        <v>1.191197394085728</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.155441788655763</v>
+        <v>1.239818015592946</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7995896711139083</v>
+        <v>0.7831614546769371</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.326788923033696</v>
+        <v>1.235298348286992</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.000375970293869</v>
+        <v>0.9788012832831749</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6521199391562124</v>
+        <v>0.6767619247244453</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.047240272836239</v>
+        <v>1.059716992484209</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.236968605643762</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.3916092606753531</v>
+        <v>-0.3916092606753529</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>6.952869467680911</v>
@@ -1725,7 +1725,7 @@
         <v>2.994548547361902</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.120762599332773</v>
+        <v>4.120762599332761</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.56535132124063</v>
@@ -1734,7 +1734,7 @@
         <v>1.718088400001203</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.51392201608539</v>
+        <v>2.513922016085388</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.080999992733271</v>
+        <v>-1.979104914480323</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.12120588006032</v>
+        <v>-2.796502057268213</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.230704607904048</v>
+        <v>-2.241408811250802</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.377279601415248</v>
+        <v>3.100944710960448</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7797259420969141</v>
+        <v>-0.5649863872631923</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.03781478422531159</v>
+        <v>0.3795445667917492</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.426201197918788</v>
+        <v>2.544090182214108</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.510523409930072</v>
+        <v>-1.256486594668356</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.6738014812379894</v>
+        <v>-0.3542767272465009</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.025034365682401</v>
+        <v>2.148618242371634</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.04195848024103849</v>
+        <v>0.3136009790376432</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.508268756882171</v>
+        <v>1.491711703572013</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.8519291828961</v>
+        <v>10.56350111632841</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.47818630164153</v>
+        <v>6.782379508658666</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.084590027923001</v>
+        <v>7.581252963160437</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.688314170563928</v>
+        <v>8.487889577605239</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.746284081902834</v>
+        <v>4.949324826629161</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.436069676593954</v>
+        <v>5.637637514482389</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.7814864727423348</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2474091407187675</v>
+        <v>-0.2474091407187674</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2835033205238222</v>
@@ -1830,7 +1830,7 @@
         <v>0.1221027462967825</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1680241352770399</v>
+        <v>0.1680241352770394</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2768500528388577</v>
@@ -1839,7 +1839,7 @@
         <v>0.08546681725317004</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1250557966268444</v>
+        <v>0.1250557966268443</v>
       </c>
     </row>
     <row r="38">
@@ -1850,29 +1850,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8258952147905253</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.8866091873245973</v>
+        <v>-0.8698141635067396</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1209369760417024</v>
+        <v>0.1187684611686935</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03165170520318963</v>
+        <v>-0.02223322140612575</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003154387476060293</v>
+        <v>0.01421436648898151</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1118317408231812</v>
+        <v>0.1226011640621841</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.06640401328140928</v>
+        <v>-0.06279240264568309</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.02971438528066932</v>
+        <v>-0.01706719282987389</v>
       </c>
     </row>
     <row r="39">
@@ -1883,29 +1883,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.435152436919696</v>
+        <v>4.248456000055101</v>
       </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>3.00710175152815</v>
+        <v>3.684632887045833</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4828641900586412</v>
+        <v>0.463777235694104</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2776873441204938</v>
+        <v>0.2973387745471893</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3566885488379993</v>
+        <v>0.3324610029717049</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4666799911837947</v>
+        <v>0.4540136850476321</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2510401704303195</v>
+        <v>0.262784969677741</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2935407467410695</v>
+        <v>0.298431528661992</v>
       </c>
     </row>
     <row r="40">
@@ -1935,7 +1935,7 @@
         <v>1.053567052032181</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.103559672735734</v>
+        <v>4.103559672735732</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.133482191540422</v>
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.218213161418171</v>
+        <v>2.174941986123838</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5852429703577453</v>
+        <v>0.5847189857165556</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.646981810771823</v>
+        <v>4.717782642731709</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.436374410700325</v>
+        <v>2.490431358896696</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7798193131446689</v>
+        <v>-0.6452751969036395</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.525437038851067</v>
+        <v>2.382922799405494</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.792021971418218</v>
+        <v>2.785917040428842</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.1752577955275164</v>
+        <v>0.430181417236896</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.98753564929863</v>
+        <v>4.072816133437927</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.812682603433335</v>
+        <v>5.742895837956546</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.898966856701738</v>
+        <v>3.975494903548933</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.018385719776019</v>
+        <v>8.037604365953376</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.164842960237562</v>
+        <v>6.168548081790664</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.763755596606555</v>
+        <v>3.115081682825156</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.661853461586552</v>
+        <v>5.724109471233025</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.424431626036657</v>
+        <v>5.364323874149282</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.800180662545515</v>
+        <v>2.930423220250451</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.304615641175404</v>
+        <v>6.520258988502584</v>
       </c>
     </row>
     <row r="43">
@@ -2040,7 +2040,7 @@
         <v>0.0631732733173296</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2460548631239731</v>
+        <v>0.2460548631239729</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2815123926901048</v>
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1667084298670884</v>
+        <v>0.1644034249978425</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.04415378558005818</v>
+        <v>0.04297484769674934</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3384632823538662</v>
+        <v>0.3378972881745889</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1377953380666764</v>
+        <v>0.140315254091267</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04437062557882707</v>
+        <v>-0.03611161103765177</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1411277698172751</v>
+        <v>0.1308234603037323</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1848848373824047</v>
+        <v>0.1800229031208629</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.01176837645283216</v>
+        <v>0.02849770530568488</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2593075677461577</v>
+        <v>0.2652795848190094</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4849190157322937</v>
+        <v>0.4850769172867181</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3296504467788573</v>
+        <v>0.3334629699271043</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6826400322247805</v>
+        <v>0.6838856287804858</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3889975118308718</v>
+        <v>0.3923150943884873</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.173981662247613</v>
+        <v>0.199043885116689</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3642960017718013</v>
+        <v>0.3624366766995196</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3905682369265384</v>
+        <v>0.3745355026785755</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1995801347313843</v>
+        <v>0.2052176036483931</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4521273944454667</v>
+        <v>0.4627522759519714</v>
       </c>
     </row>
     <row r="46">
